--- a/PropProAssistant/Test/WorksheetModels/Price_Bid_Worksheet.xlsx
+++ b/PropProAssistant/Test/WorksheetModels/Price_Bid_Worksheet.xlsx
@@ -87,8 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -99,69 +102,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="80"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.7663977486747" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.0454156058175" customWidth="1"/>
-    <col min="7" max="7" width="24.0836399623326" customWidth="1"/>
-    <col min="8" max="8" width="32.142325265067" customWidth="1"/>
-    <col min="9" max="9" width="12.8575439453125" customWidth="1"/>
-    <col min="10" max="10" width="20.3177359444754" customWidth="1"/>
-    <col min="11" max="11" width="14.7686298915318" customWidth="1"/>
-    <col min="12" max="12" width="12.7828598022461" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="22.345450265067" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="10" customWidth="1" style="1"/>
+    <col min="2" max="2" bestFit="1" width="10.7663977486747" customWidth="1" style="1"/>
+    <col min="3" max="3" bestFit="1" width="10" customWidth="1" style="1"/>
+    <col min="4" max="4" bestFit="1" width="10" customWidth="1" style="1"/>
+    <col min="5" max="5" bestFit="1" width="10" customWidth="1" style="1"/>
+    <col min="6" max="6" bestFit="1" width="16.0454156058175" customWidth="1" style="1"/>
+    <col min="7" max="7" bestFit="1" width="24.0836399623326" customWidth="1" style="1"/>
+    <col min="8" max="8" bestFit="1" width="30" customWidth="1" style="1"/>
+    <col min="9" max="9" bestFit="1" width="12.8575439453125" customWidth="1" style="1"/>
+    <col min="10" max="10" bestFit="1" width="20.3177359444754" customWidth="1" style="1"/>
+    <col min="11" max="11" bestFit="1" width="14.7686298915318" customWidth="1" style="1"/>
+    <col min="12" max="12" bestFit="1" width="12.7828598022461" customWidth="1" style="1"/>
+    <col min="13" max="13" bestFit="1" width="10" customWidth="1" style="1"/>
+    <col min="14" max="14" bestFit="1" width="22.345450265067" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
         <v>13</v>
       </c>
     </row>
